--- a/webserver/model_data/TrainingData_5cat_de.xlsx
+++ b/webserver/model_data/TrainingData_5cat_de.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17618" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18380" uniqueCount="2099">
   <si>
     <t>User</t>
   </si>
@@ -6004,6 +6004,420 @@
   </si>
   <si>
     <t>markwilly</t>
+  </si>
+  <si>
+    <t>London ist sicher ein besonderer Mikrokosmos</t>
+  </si>
+  <si>
+    <t>Dignum et justum</t>
+  </si>
+  <si>
+    <t>Kann man in allen westlichen Demokratien beobachten.</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/ausland/2020-01/grossbritannien-brexit-entfremdung-eu-austritt</t>
+  </si>
+  <si>
+    <t>Und die Kluft wird jeden Tag tiefer.</t>
+  </si>
+  <si>
+    <t>Ja-ah, seufz, so war das damals...</t>
+  </si>
+  <si>
+    <t>London war eine weltoffene Metropole</t>
+  </si>
+  <si>
+    <t>Don Minestrone</t>
+  </si>
+  <si>
+    <t>Diesen Konflikt gibt es überall auf der Welt.</t>
+  </si>
+  <si>
+    <t>Die Stadt ist moderner und liberaler.</t>
+  </si>
+  <si>
+    <t>Sie zieht modern eingestellte, jüngere Menschen mit guter Bildung an, weil dort die guten Jobs sind.</t>
+  </si>
+  <si>
+    <t>Dort machen sie dann auch Erfahrungen mit Menschen anderer Herkunft, die sie selbst dort prägen, wo sie nicht positiv sind.</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
+  </si>
+  <si>
+    <t>Genau so ist es!</t>
+  </si>
+  <si>
+    <t>ZeitGeistGestörter</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/2020/06/einfachheit-kochen-schreiben-masslosigkeit-perfektionismus</t>
+  </si>
+  <si>
+    <t>Irgendwelche schleimigen bähIIgse-Sosen in ein Fischbrötchen zu schmieren, ist ein SKANDAL!</t>
+  </si>
+  <si>
+    <t>Ich denke, es kommt sehr auf die Sache an.</t>
+  </si>
+  <si>
+    <t>Morbox</t>
+  </si>
+  <si>
+    <t>Aber ich finde der Schinken macht schon was aus.</t>
+  </si>
+  <si>
+    <t>Trotzdem wird es produziert und verkauft!</t>
+  </si>
+  <si>
+    <t>dof</t>
+  </si>
+  <si>
+    <t>Auch der Tierwohlpart wirkt stellenweise seltsam; aber ansonsten sehr guter Artikel.</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/kultur/2020-02/julia-kloeckner-agrarindustrie-lebensmittelpreise-bauern-landwirtschaft/seite-2</t>
+  </si>
+  <si>
+    <t>Tetsu</t>
+  </si>
+  <si>
+    <t>Dem stimme ich im großen und ganzen zu, auch wenn er stellenweise einige Ausreise hat</t>
+  </si>
+  <si>
+    <t>Das Problem wird darin benannt - daraus die Brücke zum Kapitalismusbashing zu Spannen wirkt nicht nur unnötig sondern krampfhaft gewollt</t>
+  </si>
+  <si>
+    <t>Guter Artikel der die Problematik klar umreißt. Danke!</t>
+  </si>
+  <si>
+    <t>UniKrebsforscher</t>
+  </si>
+  <si>
+    <t>Ist doch gut!</t>
+  </si>
+  <si>
+    <t>Nein, tun sie genauso wenig wie YT oder Google beim Urheberrechtsstreit keine Sozialpolitik machen</t>
+  </si>
+  <si>
+    <t>LaberRhabarber2</t>
+  </si>
+  <si>
+    <t>Die Armen werden nur vorgeschoben um weiterhin die Produzenten auszubeuten.</t>
+  </si>
+  <si>
+    <t>Botbauer</t>
+  </si>
+  <si>
+    <t>Schliesse mich Ihrem Kommentar gerne an. Danke!</t>
+  </si>
+  <si>
+    <t>Bösknecht</t>
+  </si>
+  <si>
+    <t>Wenn Frau Kiyak sich einer Thematik annimmt, kann man davon ausgehen, dass dies gründlich erfolgt.</t>
+  </si>
+  <si>
+    <t>Koga jebe</t>
+  </si>
+  <si>
+    <t>Ich möchte nicht in der Schusslinie dieser Journalistin stehen, die stets mit treffendem und bestechendem Klartext die Dinge beim Namen nennt</t>
+  </si>
+  <si>
+    <t>Chapeau!</t>
+  </si>
+  <si>
+    <t>Justin Teim</t>
+  </si>
+  <si>
+    <t>Ja, bei dem Thema wußte ich schon, daß Frau Kiyak ins Schwarze trifft.</t>
+  </si>
+  <si>
+    <t>Die Politik müssen an ihrer Agrarpolitik arbeiten, das steht außer Frage</t>
+  </si>
+  <si>
+    <t>U. Hermes</t>
+  </si>
+  <si>
+    <t>Die Verantwortlichen (neoliberal!) lachen sich ins Fäustchen.</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/deutschland/2020-02/thomas-kemmerich-thueringen-wahl-ministerpraesident-fdp-afd</t>
+  </si>
+  <si>
+    <t>Das war aufrichtig und ehrlich und nötigt mir Respekt ab.</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/ausland/2020-02/donald-trump-impeachment-senat-freispruch-kommentar-mitt-romney</t>
+  </si>
+  <si>
+    <t>Hut ab und meinen Respekt für Mitt Romney.</t>
+  </si>
+  <si>
+    <t>Sanktus</t>
+  </si>
+  <si>
+    <t>Der einzige Mann mit Rückgrat.</t>
+  </si>
+  <si>
+    <t>Unfassbar wie ungerecht es im amerikanischen Rechtssystem zugeht.</t>
+  </si>
+  <si>
+    <t>Es widert mich an</t>
+  </si>
+  <si>
+    <t>Es tut weh, diese Dinge mitzuerleben und man fragt sich unweigerlich, wie viel tiefer das Ganze noch sinken kann.</t>
+  </si>
+  <si>
+    <t>Typen die ohne jeden moralischen Kompass keine Fragen stellen und bedingungslos auf Linie sind?</t>
+  </si>
+  <si>
+    <t>Trump hat durchaus postive Ansätze, die aber kaum gewürdigt werden, wie zum Beispiel sein Kampf gegen Illegale Einwanderung.</t>
+  </si>
+  <si>
+    <t>Marius1990</t>
+  </si>
+  <si>
+    <t>Die deutsche Berichterstattung, wie auch dieser Artikel, ist extrem einseitig und parteiisch und hat mit seriösem Journalismus nichts zu tun.</t>
+  </si>
+  <si>
+    <t>Es ist noch Licht am Ende des Trumptunnels indem sich alle anderen Republikaner verirrt haben.</t>
+  </si>
+  <si>
+    <t>playerpiano</t>
+  </si>
+  <si>
+    <t>Das sehe ich leider nicht so.</t>
+  </si>
+  <si>
+    <t>Der Traum ist aus</t>
+  </si>
+  <si>
+    <t>Es kostet viel Mut sich so öffentlich gegen Trump zu stellen, und es wird für ihn bestimmt Konsequenzen haben.</t>
+  </si>
+  <si>
+    <t>Unus multorum</t>
+  </si>
+  <si>
+    <t>Daher ist mein Respekt ihm gegenüber riesig.</t>
+  </si>
+  <si>
+    <t>Frank Werner</t>
+  </si>
+  <si>
+    <t>Ich stimme Ihnen zu: die CDU muss sich entscheiden.</t>
+  </si>
+  <si>
+    <t>https://www.zeit.de/politik/deutschland/2020-02/ministerpraesidentenwahl-thueringen-bodo-ramelow-liveblog</t>
+  </si>
+  <si>
+    <t>Selber schuld, kann man da nur sagen.</t>
+  </si>
+  <si>
+    <t>Für mehr nach vorne</t>
+  </si>
+  <si>
+    <t>Absolut richtig.</t>
+  </si>
+  <si>
+    <t>Thrym</t>
+  </si>
+  <si>
+    <t>Schon richtig</t>
+  </si>
+  <si>
+    <t>Walter Krueger</t>
+  </si>
+  <si>
+    <t>Aber Ihre sonstigen Beiträge lassen gut erkennen worum es Ihnen offensichtlich geht.</t>
+  </si>
+  <si>
+    <t>edgard</t>
+  </si>
+  <si>
+    <t>Z.B. das N Wort hat nicht mehr die Bedeutung wie bisher, sondern es wird inflationsmässig jedem hinterhergerufen, der nicht ja sagen will, zu grün roten Vorschriften.</t>
+  </si>
+  <si>
+    <t>Inge L.</t>
+  </si>
+  <si>
+    <t>https://www.welt.de/politik/deutschland/article205652153/Thomas-Kemmerich-gibt-auf-FDP-in-Thueringen-will-Landtagsaufloesung.html</t>
+  </si>
+  <si>
+    <t>In D werden ja seit einiger Zeit laufend Begriffe umgedeutet</t>
+  </si>
+  <si>
+    <t>Was nicht passt wird passend gemacht.</t>
+  </si>
+  <si>
+    <t>Rolf A.</t>
+  </si>
+  <si>
+    <t>Eine unsägliche Posse!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Mehrzahl der Kommentare hier haben die Tragweite dieses Skandals nicht mal ansatzweise begriffen! </t>
+  </si>
+  <si>
+    <t>T.K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicht der Wähler entscheidet und danach der freie Abgeordnete sondern die Parteispitzen in Berlin! </t>
+  </si>
+  <si>
+    <t>https://www.welt.de/politik/deutschland/article205638647/Thueringen-Das-wollen-wir-mal-sehen-Friedrich-Merz-Kampfansage-bei-Lanz.html</t>
+  </si>
+  <si>
+    <t>Harry Hough</t>
+  </si>
+  <si>
+    <t>Eine Farce!!!</t>
+  </si>
+  <si>
+    <t>Simone K.</t>
+  </si>
+  <si>
+    <t>Erst mal muss Merkel weg, dann könnte man über Merz reden...</t>
+  </si>
+  <si>
+    <t>hoppaaaaa!!</t>
+  </si>
+  <si>
+    <t>Ozan Cem</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/soundway-records/meridian-brothers-el-gran-pajaro-de-los-andes-instrumental</t>
+  </si>
+  <si>
+    <t>This is great!</t>
+  </si>
+  <si>
+    <t>der remix ist nicht so gut original ist besser</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/hystericmind/sido-x-andreas-bourani-astronaut-hysteric-mind-bootleg</t>
+  </si>
+  <si>
+    <t>Ich liebe Kekse</t>
+  </si>
+  <si>
+    <t>cool ---)‐‐---------</t>
+  </si>
+  <si>
+    <t>jsk</t>
+  </si>
+  <si>
+    <t>geht das echte lid ist besser aber das klingt auch gut</t>
+  </si>
+  <si>
+    <t>Killer3D</t>
+  </si>
+  <si>
+    <t>Geil</t>
+  </si>
+  <si>
+    <t>Salome Henrich</t>
+  </si>
+  <si>
+    <t>Alles blass und grau</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Clipping.... schon mal gehört????</t>
+  </si>
+  <si>
+    <t>Thorsten Pichowicz</t>
+  </si>
+  <si>
+    <t>yah</t>
+  </si>
+  <si>
+    <t>Butoi Andrei</t>
+  </si>
+  <si>
+    <t>geil !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>klingt nicht gut 0o0</t>
+  </si>
+  <si>
+    <t>Lara Z</t>
+  </si>
+  <si>
+    <t>kommplet kaputt gemacht , das lied kilngt jetzt scheiße</t>
+  </si>
+  <si>
+    <t>Waldemar Izaya Isaa</t>
+  </si>
+  <si>
+    <t>Geiler Song</t>
+  </si>
+  <si>
+    <t>Morbo 77</t>
+  </si>
+  <si>
+    <t>Das konnte ich nicht</t>
+  </si>
+  <si>
+    <t>Den geilsten Remix des Songs mit übersteuern der bassline zerstört :-/ so schade</t>
+  </si>
+  <si>
+    <t>TigerNationDE</t>
+  </si>
+  <si>
+    <t>geil das ding hat bummmmms</t>
+  </si>
+  <si>
+    <t>woow</t>
+  </si>
+  <si>
+    <t>Andrea Hollenbach</t>
+  </si>
+  <si>
+    <t>User 397779901</t>
+  </si>
+  <si>
+    <t>ich vote diesen Song als neue Nationalhymne</t>
+  </si>
+  <si>
+    <t>RaveHeartMichael</t>
+  </si>
+  <si>
+    <t>ser gut !!</t>
+  </si>
+  <si>
+    <t>Sonny Rix Warming</t>
+  </si>
+  <si>
+    <t>Gänshaut ... und ich muss einfach auf laut stellen</t>
+  </si>
+  <si>
+    <t>Oma Schnatt</t>
+  </si>
+  <si>
+    <t>Eine gut formulierte und toll bebilderte journalistische Arbeit.</t>
+  </si>
+  <si>
+    <t>https://www.faz.net/aktuell/wissen/physik-mehr/glasrecycling-und-die-frage-wie-braun-gruen-sein-darf-16477454.html?utm_source=pocket-newtab#lesermeinungen</t>
+  </si>
+  <si>
+    <t>Dieter Drews</t>
+  </si>
+  <si>
+    <t>sehr informativer Artikel, am Ort bei den Fachleuten recherchiert und detailreich, ohne in Fachchinesisch zu verfallen.</t>
+  </si>
+  <si>
+    <t>Dafür zahlt man dann auch gern.</t>
+  </si>
+  <si>
+    <t>Es ist ja auch nur vernünftig, dass Flaschen und Gläser gesammelt werden</t>
+  </si>
+  <si>
+    <t>August-Friedrich Busch</t>
   </si>
 </sst>
 </file>
@@ -6423,12 +6837,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U1226"/>
+  <dimension ref="B1:U1304"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="O1" colorId="8" zoomScale="113" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1207" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1283" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O1227" sqref="O1227"/>
+      <selection pane="bottomLeft" activeCell="O1304" sqref="O1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61740,6 +62154,12 @@
       <c r="K1226" s="1" t="s">
         <v>1960</v>
       </c>
+      <c r="L1226" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="M1226" s="1" t="s">
+        <v>1940</v>
+      </c>
       <c r="O1226" t="s">
         <v>1959</v>
       </c>
@@ -61760,6 +62180,2442 @@
       </c>
       <c r="U1226" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1227" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1227" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L1227" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1227" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1227" t="s">
+        <v>1961</v>
+      </c>
+      <c r="P1227" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1227" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1227" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1227" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1228" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1228" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L1228" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1228" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1228" t="s">
+        <v>1963</v>
+      </c>
+      <c r="P1228" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1228" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="R1228" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="S1228" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="T1228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1228" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1229" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1229" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L1229" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1229" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1229" t="s">
+        <v>1965</v>
+      </c>
+      <c r="P1229" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1229" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R1229" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1229" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="T1229" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1229" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1230" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1230" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L1230" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1230" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1230" t="s">
+        <v>1966</v>
+      </c>
+      <c r="P1230" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1230" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R1230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1230" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1230" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1231" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1231" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L1231" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1231" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1231" t="s">
+        <v>1967</v>
+      </c>
+      <c r="P1231" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1231" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R1231" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="S1231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1231" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="U1231" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1232" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1232" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L1232" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1232" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1232" t="s">
+        <v>1969</v>
+      </c>
+      <c r="P1232" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1232" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1232" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1232" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="T1232" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U1232" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1233" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1233" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L1233" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1233" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1233" t="s">
+        <v>1970</v>
+      </c>
+      <c r="P1233" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1233" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R1233" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="S1233" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1233" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1234" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1234" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L1234" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1234" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1234" t="s">
+        <v>1971</v>
+      </c>
+      <c r="P1234" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1234" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1234" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1234" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T1234" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U1234" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1235" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1235" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L1235" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M1235" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O1235" t="s">
+        <v>1972</v>
+      </c>
+      <c r="P1235" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1235" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="R1235" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="S1235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1235" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U1235" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1236" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1236" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L1236" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M1236" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O1236" t="s">
+        <v>1974</v>
+      </c>
+      <c r="P1236" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1236" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S1236" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1236" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="U1236" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="1237" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1237" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L1237" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M1237" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O1237" t="s">
+        <v>1977</v>
+      </c>
+      <c r="P1237" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1237" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1237" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S1237" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T1237" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="U1237" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1238" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1238" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="L1238" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M1238" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O1238" t="s">
+        <v>1978</v>
+      </c>
+      <c r="P1238" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1238" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1238" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1238" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T1238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1238" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1239" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1239" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="L1239" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M1239" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O1239" t="s">
+        <v>1980</v>
+      </c>
+      <c r="P1239" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1239" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1239" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S1239" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1239" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1239" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1240" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1240" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="L1240" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M1240" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="O1240" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P1240" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1240" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1240" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1240" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1240" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1240" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1241" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1241" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L1241" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1241" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1241" t="s">
+        <v>1983</v>
+      </c>
+      <c r="P1241" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1241" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="R1241" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S1241" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1241" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1241" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1242" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1242" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L1242" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1242" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1242" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P1242" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1242" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R1242" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1242" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1242" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="U1242" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1243" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1243" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L1243" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1243" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1243" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P1243" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1243" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1243" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S1243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1243" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1243" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1244" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1244" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="L1244" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1244" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1244" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P1244" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1244" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R1244" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="S1244" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T1244" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1244" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1245" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1245" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L1245" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1245" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1245" t="s">
+        <v>1990</v>
+      </c>
+      <c r="P1245" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1245" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1245" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1245" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1245" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="U1245" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1246" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1246" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L1246" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1246" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1246" t="s">
+        <v>1991</v>
+      </c>
+      <c r="P1246" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1246" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1246" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="S1246" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="T1246" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U1246" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1247" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1247" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L1247" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1247" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1247" t="s">
+        <v>1993</v>
+      </c>
+      <c r="P1247" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1247" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1247" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="S1247" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1247" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1247" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1248" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1248" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L1248" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1248" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1248" t="s">
+        <v>1995</v>
+      </c>
+      <c r="P1248" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1248" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="R1248" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1248" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1248" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1248" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1249" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1249" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L1249" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1249" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1249" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P1249" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1249" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="R1249" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S1249" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1249" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1249" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1250" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1250" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L1250" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1250" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1250" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P1250" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1250" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="R1250" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1250" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T1250" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1250" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1251" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1251" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L1251" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1251" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1251" t="s">
+        <v>2000</v>
+      </c>
+      <c r="P1251" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1251" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1251" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="S1251" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="T1251" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="U1251" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1252" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1252" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="L1252" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1252" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1252" t="s">
+        <v>2002</v>
+      </c>
+      <c r="P1252" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1252" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1252" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1252" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="U1252" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1253" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1253" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="L1253" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1253" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O1253" t="s">
+        <v>2003</v>
+      </c>
+      <c r="P1253" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1253" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1253" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="S1253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1253" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1253" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1254" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1254" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L1254" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1254" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="O1254" t="s">
+        <v>2005</v>
+      </c>
+      <c r="P1254" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1254" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1254" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1254" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1254" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1254" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1255" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1255" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L1255" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1255" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1255" t="s">
+        <v>2007</v>
+      </c>
+      <c r="P1255" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1255" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R1255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1255" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1255" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1255" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1256" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1256" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L1256" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1256" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1256" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P1256" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1256" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R1256" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1256" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1256" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1256" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1257" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1257" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L1257" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1257" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1257" t="s">
+        <v>2011</v>
+      </c>
+      <c r="P1257" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1257" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S1257" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T1257" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="U1257" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1258" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1258" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L1258" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1258" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1258" t="s">
+        <v>2012</v>
+      </c>
+      <c r="P1258" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1258" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1258" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T1258" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="U1258" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1259" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1259" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L1259" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1259" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1259" t="s">
+        <v>2013</v>
+      </c>
+      <c r="P1259" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1259" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1259" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="S1259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1259" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="U1259" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1260" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1260" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L1260" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1260" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1260" t="s">
+        <v>2014</v>
+      </c>
+      <c r="P1260" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1260" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1260" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1260" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1260" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1260" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1261" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1261" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L1261" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1261" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1261" t="s">
+        <v>2015</v>
+      </c>
+      <c r="P1261" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1261" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R1261" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="S1261" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T1261" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1261" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1262" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1262" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="L1262" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1262" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1262" t="s">
+        <v>2016</v>
+      </c>
+      <c r="P1262" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1262" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1262" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1263" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1263" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="L1263" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1263" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1263" t="s">
+        <v>2018</v>
+      </c>
+      <c r="P1263" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1263" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1263" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1263" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1263" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1263" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1264" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1264" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L1264" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1264" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1264" t="s">
+        <v>2019</v>
+      </c>
+      <c r="P1264" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1264" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1264" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1264" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1264" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1265" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1265" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="L1265" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1265" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1265" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P1265" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1265" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1265" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1265" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1265" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1265" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1266" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1266" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L1266" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1266" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1266" t="s">
+        <v>2023</v>
+      </c>
+      <c r="P1266" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1266" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R1266" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1266" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1266" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1267" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1267" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L1267" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1267" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O1267" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P1267" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1267" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1267" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="T1267" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1267" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1268" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1268" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="L1268" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1268" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O1268" t="s">
+        <v>2027</v>
+      </c>
+      <c r="P1268" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1268" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1268" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1268" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1268" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1269" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1269" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="L1269" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1269" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O1269" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P1269" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1269" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1269" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1269" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T1269" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1269" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1270" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1270" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="L1270" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1270" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O1270" t="s">
+        <v>2031</v>
+      </c>
+      <c r="P1270" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1270" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1270" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1270" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1270" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U1270" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1271" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1271" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="L1271" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1271" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O1271" t="s">
+        <v>2033</v>
+      </c>
+      <c r="P1271" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1271" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1271" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1271" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="U1271" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1272" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1272" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="L1272" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1272" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O1272" t="s">
+        <v>2035</v>
+      </c>
+      <c r="P1272" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1272" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="S1272" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="T1272" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1272" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1273" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1273" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L1273" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1273" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O1273" t="s">
+        <v>2037</v>
+      </c>
+      <c r="P1273" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1273" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1273" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1273" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1273" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U1273" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1274" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1274" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L1274" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1274" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O1274" t="s">
+        <v>2040</v>
+      </c>
+      <c r="P1274" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1274" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1274" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1274" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1274" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1274" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1275" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1275" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L1275" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1275" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O1275" t="s">
+        <v>2041</v>
+      </c>
+      <c r="P1275" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1275" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1275" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1275" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1275" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1275" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1276" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1276" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L1276" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1276" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O1276" t="s">
+        <v>2043</v>
+      </c>
+      <c r="P1276" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1276" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1276" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1276" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="T1276" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1276" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1277" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1277" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L1277" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1277" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="O1277" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P1277" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1277" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1277" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1277" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1277" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1277" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1278" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1278" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="L1278" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1278" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="O1278" t="s">
+        <v>2046</v>
+      </c>
+      <c r="P1278" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1278" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1278" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1278" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U1278" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1279" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1279" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="L1279" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1279" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="O1279" t="s">
+        <v>2049</v>
+      </c>
+      <c r="P1279" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1279" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="R1279" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1279" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1279" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U1279" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1280" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1280" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L1280" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1280" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="O1280" t="s">
+        <v>2051</v>
+      </c>
+      <c r="P1280" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1280" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R1280" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1280" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1280" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="U1280" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1281" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1281" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L1281" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1281" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="O1281" t="s">
+        <v>2052</v>
+      </c>
+      <c r="P1281" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1281" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1281" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="S1281" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T1281" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1281" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1282" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1282" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L1282" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1282" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1282" t="s">
+        <v>2056</v>
+      </c>
+      <c r="P1282" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1282" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1282" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S1282" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T1282" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1282" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1283" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1283" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="L1283" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1283" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1283" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P1283" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1283" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S1283" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1283" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="U1283" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1284" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1284" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L1284" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1284" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1284" t="s">
+        <v>2060</v>
+      </c>
+      <c r="P1284" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1284" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1284" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="S1284" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1284" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1284" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1285" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1285" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L1285" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1285" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1285" t="s">
+        <v>2062</v>
+      </c>
+      <c r="P1285" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1285" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1285" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1285" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1285" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1286" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1286" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L1286" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1286" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1286" t="s">
+        <v>2064</v>
+      </c>
+      <c r="P1286" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1286" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1286" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="S1286" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="T1286" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="U1286" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1287" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1287" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L1287" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1287" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1287" t="s">
+        <v>2066</v>
+      </c>
+      <c r="P1287" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1287" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1287" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1287" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T1287" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1287" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1288" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1288" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L1288" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1288" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1288" t="s">
+        <v>2068</v>
+      </c>
+      <c r="P1288" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1288" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1288" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1288" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1288" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U1288" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1289" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1289" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L1289" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1289" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1289" t="s">
+        <v>2070</v>
+      </c>
+      <c r="P1289" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1289" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1289" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="S1289" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="T1289" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1289" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1290" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1290" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L1290" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1290" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1290" t="s">
+        <v>2072</v>
+      </c>
+      <c r="P1290" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1290" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1290" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="S1290" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1290" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1290" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1291" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1291" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L1291" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1291" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1291" t="s">
+        <v>2073</v>
+      </c>
+      <c r="P1291" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1291" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1291" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S1291" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1291" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1291" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1292" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1292" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="L1292" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1292" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1292" t="s">
+        <v>2075</v>
+      </c>
+      <c r="P1292" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q1292" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1292" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="S1292" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1292" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="U1292" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1293" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1293" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L1293" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1293" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1293" t="s">
+        <v>2077</v>
+      </c>
+      <c r="P1293" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1293" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R1293" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="S1293" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1293" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U1293" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1294" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1294" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L1294" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1294" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1294" t="s">
+        <v>2079</v>
+      </c>
+      <c r="P1294" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1294" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1294" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1294" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="T1294" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="U1294" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1295" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1295" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="L1295" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1295" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1295" t="s">
+        <v>2080</v>
+      </c>
+      <c r="P1295" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1295" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="R1295" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="S1295" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="T1295" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1295" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1296" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1296" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="L1296" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1296" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1296" t="s">
+        <v>2082</v>
+      </c>
+      <c r="P1296" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1296" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1296" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S1296" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="T1296" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="U1296" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1297" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1297" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L1297" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1297" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1297" t="s">
+        <v>2083</v>
+      </c>
+      <c r="P1297" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1297" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1297" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="S1297" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1297" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="U1297" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1298" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1298" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L1298" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1298" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1298" t="s">
+        <v>2086</v>
+      </c>
+      <c r="P1298" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1298" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1298" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S1298" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T1298" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U1298" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1299" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1299" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L1299" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1299" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1299" t="s">
+        <v>2088</v>
+      </c>
+      <c r="P1299" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1299" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1299" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T1299" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U1299" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1300" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1300" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="L1300" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M1300" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O1300" t="s">
+        <v>2090</v>
+      </c>
+      <c r="P1300" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1300" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R1300" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="S1300" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T1300" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U1300" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1301" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1301" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L1301" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1301" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O1301" t="s">
+        <v>2092</v>
+      </c>
+      <c r="P1301" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1302" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1302" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L1302" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1302" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O1302" t="s">
+        <v>2095</v>
+      </c>
+      <c r="P1302" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1303" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1303" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L1303" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1303" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O1303" t="s">
+        <v>2096</v>
+      </c>
+      <c r="P1303" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1304" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K1304" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L1304" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1304" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="O1304" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P1304" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
